--- a/8.Manual_mv_24/mollusca_resum.xlsx
+++ b/8.Manual_mv_24/mollusca_resum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Ej.con.etudios.caso\Taller para repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Manuales\Manual.mv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C614C2-727D-4938-915F-0CCC20A7E149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C3EAA9-AF8E-47E9-939B-7A272097688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,12 +573,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -740,9 +734,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,43 +1114,40 @@
   <dimension ref="A1:BQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD93"/>
+      <selection activeCell="A83" sqref="A83:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="10" width="11.42578125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1342,31 +1332,31 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>12.57</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>-71.84</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>14.417417</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>35.778227000000001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>28.059018999999999</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>5.6612499999999999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
@@ -1551,31 +1541,31 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>12.4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>-72.260000000000005</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>14.558083</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>35.810727</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>28.035274000000001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>5.6587500000000004</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>2.272727E-3</v>
       </c>
       <c r="K3">
@@ -1760,31 +1750,31 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>12.25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>-72.55</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>13.257707999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>35.587091000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>28.183313999999999</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>5.4225000000000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
@@ -1969,31 +1959,31 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>12.53</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>-72.13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>9.9853749999999994</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>35.089022999999997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>29.055060000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>5.2225000000000001</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
@@ -2178,31 +2168,31 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>12.49</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>-72.260000000000005</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>10.176167</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>35.116886000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>29.001894</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>5.2487500000000002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>1.5909091E-2</v>
       </c>
       <c r="K6">
@@ -2387,31 +2377,31 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>11.49</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>-73.39</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>9.5912500000000005</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>35.049931999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>29.153155000000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>5.0158332999999997</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>9.0909089999999994E-3</v>
       </c>
       <c r="K7">
@@ -2596,31 +2586,31 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>11.44</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>-73.540000000000006</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>13.877917</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>35.700544999999998</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>28.099132000000001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>5.32125</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
@@ -2805,31 +2795,31 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>11.37</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>-73.760000000000005</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>13.894583000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>35.707476999999997</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>28.083190999999999</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>5.3504167000000002</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
@@ -3014,31 +3004,31 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>11.49</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>-73.45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>13.854832999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>35.696522999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>28.109850000000002</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>5.32</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K10">
@@ -3223,31 +3213,31 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>11.45</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>-73.7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>8.6380417000000005</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>34.872773000000002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>29.263933000000002</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>5.1595833000000004</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>9.0909089999999994E-3</v>
       </c>
       <c r="K11">
@@ -3432,31 +3422,31 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>11.46</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>-73.86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>8.4393332999999995</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>34.849044999999997</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>29.336950000000002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>5.1587500000000004</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
@@ -3641,31 +3631,31 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>11.39</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>-74.209999999999994</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>8.5402500000000003</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>34.859886000000003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>29.306187999999999</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>5.1574999999999998</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>1.8181817999999999E-2</v>
       </c>
       <c r="K13">
@@ -3850,31 +3840,31 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>11.41</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>-74.17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>17.400082999999999</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>36.270795</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>27.314378999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>5.9429166999999996</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
@@ -4059,31 +4049,31 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>11.41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>-74.2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>14.278499999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>35.748614000000003</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>28.04026</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>5.4983332999999996</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
@@ -4268,31 +4258,31 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>11.43</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>-74.2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>16.103041999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>36.059908999999998</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>27.640357999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>5.7675000000000001</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
@@ -4477,31 +4467,31 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>11.45</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>-74.02</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>9.9198749999999993</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>35.037795000000003</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>28.905867000000001</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>5.17</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>9.0909089999999994E-3</v>
       </c>
       <c r="K17">
@@ -4686,31 +4676,31 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>11.42</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>-74.23</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>8.405875</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>34.856363999999999</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>29.388767000000001</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>5.1441667000000004</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>9.0909089999999994E-3</v>
       </c>
       <c r="K18">
@@ -4895,31 +4885,31 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>11.33</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>-74.28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>8.4329166999999998</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>34.850090999999999</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>29.343333999999999</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>5.1587500000000004</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>1.5909091E-2</v>
       </c>
       <c r="K19">
@@ -5104,31 +5094,31 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>11.16</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>-74.66</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>8.4779582999999992</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>34.851886</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>29.323775999999999</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>5.1591667000000001</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
@@ -5313,31 +5303,31 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>11.2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>-74.290000000000006</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>17.896249999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>36.350431999999998</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>27.234576000000001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>5.86</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
@@ -5522,31 +5512,31 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>11.09</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>-75.260000000000005</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>15.591291999999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>35.972817999999997</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>27.754258</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>5.6804167000000003</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
@@ -5731,31 +5721,31 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>10.47</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>-75.709999999999994</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>13.268292000000001</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>35.599863999999997</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>28.221993999999999</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>5.4416666999999999</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
@@ -5940,31 +5930,31 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>11.23</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>-74.66</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>15.355874999999999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>35.948340999999999</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>27.868767999999999</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>5.6458332999999996</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
@@ -6149,31 +6139,31 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>11.25</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-74.650000000000006</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>10.314633000000001</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>35.127417999999999</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>28.832557999999999</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>5.0916667000000002</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
@@ -6358,31 +6348,31 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>11.12</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-75.13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>9.0254583000000004</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>34.946795000000002</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>29.20684</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>5.04</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
@@ -6567,31 +6557,31 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>11.13</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>-75.23</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>9.2752499999999998</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>35.003591</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>29.298065999999999</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>5.0374999999999996</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>6.8181819999999999E-3</v>
       </c>
       <c r="K27">
@@ -6776,31 +6766,31 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>10.15</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-76.010000000000005</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>9.4763333000000003</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>35.039614</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>29.255109999999998</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>4.9800000000000004</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
@@ -6985,31 +6975,31 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>-76.150000000000006</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>14.138375</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>35.7485</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>28.075230999999999</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>5.4645833000000001</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
@@ -7194,31 +7184,31 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>9.76</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>-76.260000000000005</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>14.392417</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>35.791364000000002</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>27.977512999999998</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>5.4729166999999999</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
@@ -7403,31 +7393,31 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>10.17</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>-76.03</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>14.348208</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>35.790135999999997</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>28.030460000000001</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>5.44</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
@@ -7612,31 +7602,31 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>9.89</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>-76.239999999999995</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>9.3724582999999999</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>35.019568</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>29.284614000000001</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>5.0258333000000004</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
@@ -7821,31 +7811,31 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>9.82</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>-76.27</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>8.9123333000000002</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>34.950567999999997</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>29.377524999999999</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>5.05</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>6.8181819999999999E-3</v>
       </c>
       <c r="K33">
@@ -8030,31 +8020,31 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>9.4600000000000009</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>-76.430000000000007</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>8.8428749999999994</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>34.946385999999997</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>29.399550000000001</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>5.0487500000000001</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
@@ -8239,31 +8229,31 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>9.27</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>-76.48</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>14.111917</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>35.753704999999997</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>28.076170000000001</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>5.4095833000000004</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
@@ -8448,31 +8438,31 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>-76.61</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>13.563416999999999</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>35.661886000000003</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>28.185345000000002</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>5.3404166999999996</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
@@ -8657,31 +8647,31 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>9.51</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>-76.45</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>14.229167</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>35.764294999999997</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>28.054321999999999</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>5.4050000000000002</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
@@ -8866,31 +8856,31 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>9.31</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>-76.489999999999995</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>9.3724582999999999</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>35.019568</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>29.284614000000001</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>5.0258333000000004</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
@@ -9075,31 +9065,31 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>9.09</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>-76.62</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>12.134957999999999</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>35.430067999999999</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>28.522825000000001</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>5.1420833000000004</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
@@ -9284,31 +9274,31 @@
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>11.38</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>-73.739999999999995</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>8.8942917000000001</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>34.938567999999997</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>29.321732999999998</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>5.1895832999999998</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>3.6363635999999998E-2</v>
       </c>
       <c r="K40">
@@ -9493,31 +9483,31 @@
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>9.7899999999999991</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>-76.290000000000006</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>13.893375000000001</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>35.708613999999997</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>28.088753000000001</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>5.3458332999999998</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
@@ -9702,31 +9692,31 @@
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>9.75</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>-76.260000000000005</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>8.7319583000000005</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>34.931932000000003</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>29.438511999999999</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>5.05</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>2.272727E-3</v>
       </c>
       <c r="K42">
@@ -9911,31 +9901,31 @@
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>12.48</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>-71.7</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>14.634375</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>35.833955000000003</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>27.956793000000001</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>5.47</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
@@ -10120,31 +10110,31 @@
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>12.49</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>-71.73</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>25.274699999999999</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>36.80706</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>24.71349</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>6.9838180000000003</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>0.5</v>
       </c>
       <c r="K44">
@@ -10329,31 +10319,31 @@
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>12.51</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>-71.75</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>22.920169999999999</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>36.846499999999999</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>25.669129999999999</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>5.8813630000000003</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>0.3090909</v>
       </c>
       <c r="K45">
@@ -10538,31 +10528,31 @@
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>12.12</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>-72.66</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>19.733329999999999</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>36.60398</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>26.714200000000002</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>5.7211369999999997</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>0.1</v>
       </c>
       <c r="K46">
@@ -10747,31 +10737,31 @@
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>12.06</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>-72.64</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>19.267250000000001</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>36.534135999999997</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>26.788174999999999</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>5.67</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>0.1</v>
       </c>
       <c r="K47">
@@ -10956,31 +10946,31 @@
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>11.89</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>-72.62</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>24.442610999999999</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>36.755938999999998</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>25.139944</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>6.1338888999999996</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>0.34545455000000003</v>
       </c>
       <c r="K48">
@@ -11165,31 +11155,31 @@
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>11.43</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>-73.459999999999994</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>25.783833000000001</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>36.744591</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>24.508147999999998</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>6.9725000000000001</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>0.2</v>
       </c>
       <c r="K49">
@@ -11374,31 +11364,31 @@
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>11.4</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>-73.47</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>22.035250000000001</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>36.740886000000003</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>26.184837999999999</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>5.5466667000000003</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>0.1</v>
       </c>
       <c r="K50">
@@ -11583,31 +11573,31 @@
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>11.29</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>-73.459999999999994</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>24.720600000000001</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>36.704709000000001</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>25.021042999999999</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>6.11</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>0.33</v>
       </c>
       <c r="K51">
@@ -11792,31 +11782,31 @@
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>11.31</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>-73.78</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>25.911458</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>36.609476999999998</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>24.361868000000001</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>6.7987500000000001</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>0.27500000000000002</v>
       </c>
       <c r="K52">
@@ -12001,31 +11991,31 @@
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>11.34</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>-73.77</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>24.724958000000001</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>36.705545000000001</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>25.016047</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>6.12</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>0.3125</v>
       </c>
       <c r="K53">
@@ -12210,31 +12200,31 @@
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>11.34</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>-74.09</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>22.035250000000001</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>36.740886000000003</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>26.184837999999999</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>5.5466667000000003</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>0.1</v>
       </c>
       <c r="K54">
@@ -12419,31 +12409,31 @@
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>11.36</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>-74.11</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>8.4097083000000001</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>34.853318000000002</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>29.367718</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>5.1504167000000001</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>6.8181819999999999E-3</v>
       </c>
       <c r="K55">
@@ -12628,31 +12618,31 @@
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>11.39</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>-74.14</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>26.570250000000001</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>36.368659000000001</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>24.002196999999999</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>6.9441667000000002</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>0.37272727</v>
       </c>
       <c r="K56">
@@ -12837,31 +12827,31 @@
       <c r="A57">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>11.39</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>-74.180000000000007</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>24.596582999999999</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>36.685749999999999</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>25.061643</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>6.2545833000000002</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>0.27727273000000002</v>
       </c>
       <c r="K57">
@@ -13046,31 +13036,31 @@
       <c r="A58">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>11.34</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>-74.180000000000007</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>20.361542</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>36.633794999999999</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>26.56401</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>5.6041667000000004</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>0.1</v>
       </c>
       <c r="K58">
@@ -13255,31 +13245,31 @@
       <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>11.3</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>-74.17</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>20.349167000000001</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>36.630431999999999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>26.573481000000001</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>5.585</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>0.1</v>
       </c>
       <c r="K59">
@@ -13464,31 +13454,31 @@
       <c r="A60">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>11.1</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>-74.680000000000007</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>24.984542000000001</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>36.667068</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>24.916164999999999</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>6.4024999999999999</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>0.36136363999999999</v>
       </c>
       <c r="K60">
@@ -13673,31 +13663,31 @@
       <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>11.15</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>-74.69</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>26.548041999999999</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>36.383068000000002</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>24.041571000000001</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>6.9424999999999999</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>0.4</v>
       </c>
       <c r="K61">
@@ -13882,31 +13872,31 @@
       <c r="A62">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>11.1</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>-74.900000000000006</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>26.726458000000001</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>36.35425</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>23.911543999999999</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>6.8816667000000002</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>0.2</v>
       </c>
       <c r="K62">
@@ -14091,31 +14081,31 @@
       <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>10.94</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>-75.11</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>25.509032999999999</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>36.681182</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>24.756285999999999</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>6.8413332999999996</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>0.2</v>
       </c>
       <c r="K63">
@@ -14300,31 +14290,31 @@
       <c r="A64">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>11.02</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>-75.14</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>20.092957999999999</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>36.624841000000004</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>26.629659</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>5.5958332999999998</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>0.1</v>
       </c>
       <c r="K64">
@@ -14509,31 +14499,31 @@
       <c r="A65">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>11.04</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>-75.19</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>28.318625000000001</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>35.942431999999997</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>23.084246</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>6.9395832999999998</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>0.1</v>
       </c>
       <c r="K65">
@@ -14718,31 +14708,31 @@
       <c r="A66">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>10.54</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>-75.62</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>25.731625000000001</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>36.588794999999998</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>24.621442999999999</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>6.9087500000000004</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>0.5</v>
       </c>
       <c r="K66">
@@ -14927,31 +14917,31 @@
       <c r="A67">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>10.09</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>-75.94</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>20.42625</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>36.666522999999998</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>26.558378000000001</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>5.6550000000000002</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>0.1</v>
       </c>
       <c r="K67">
@@ -15136,31 +15126,31 @@
       <c r="A68">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>10</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>-75.78</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>71</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>13.838417</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>35.699567999999999</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>28.133431000000002</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>5.4258332999999999</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
@@ -15345,31 +15335,31 @@
       <c r="A69">
         <v>70</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>-76.11</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>21.135417</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>36.706068000000002</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>26.406887999999999</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>5.6933332999999999</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>0.1</v>
       </c>
       <c r="K69">
@@ -15554,31 +15544,31 @@
       <c r="A70">
         <v>71</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>9.5500000000000007</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>-75.680000000000007</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>26.119389000000002</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>36.597181999999997</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>24.488921999999999</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>7.0722221999999997</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>0.3</v>
       </c>
       <c r="K70">
@@ -15763,31 +15753,31 @@
       <c r="A71">
         <v>72</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>9.2899999999999991</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>-76.459999999999994</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>72</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>25.722332999999999</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>36.678527000000003</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>24.769334000000001</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>6.9889999999999999</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>0.31272727</v>
       </c>
       <c r="K71">
@@ -15972,31 +15962,31 @@
       <c r="A72">
         <v>73</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>8.99</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>-76.7</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>25.488766999999999</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>36.662672999999998</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>24.830158999999998</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>6.7160000000000002</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>0.54181818000000004</v>
       </c>
       <c r="K72">
@@ -16181,31 +16171,31 @@
       <c r="A73">
         <v>74</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>9.02</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>-76.569999999999993</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>28.817374999999998</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>36.013114000000002</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>22.980150999999999</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>6.87</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>0.1</v>
       </c>
       <c r="K73">
@@ -16390,31 +16380,31 @@
       <c r="A74">
         <v>75</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>8.98</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>-76.459999999999994</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>19.583583000000001</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>36.567909</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>26.761177</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>5.6858332999999996</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>9.3181818E-2</v>
       </c>
       <c r="K74">
@@ -16599,31 +16589,31 @@
       <c r="A75">
         <v>79</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>9.07</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>-76.37</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>28.457958000000001</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>35.970545000000001</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>23.054984999999999</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>6.8279167000000003</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>0.19318182</v>
       </c>
       <c r="K75">
@@ -16808,31 +16798,31 @@
       <c r="A76">
         <v>80</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>9.7799999999999994</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>-75.709999999999994</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>73</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>28.852625</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>36.003318</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>22.952459999999999</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>6.8529166999999998</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>0.1</v>
       </c>
       <c r="K76">
@@ -17017,31 +17007,31 @@
       <c r="A77">
         <v>86</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>11.15</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>-74.790000000000006</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>6.6756250000000001</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>34.789659</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>30.716830999999999</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>5.42</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
@@ -17226,31 +17216,31 @@
       <c r="A78">
         <v>87</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>11.15</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>-74.45</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>21.073208000000001</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>36.686067999999999</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>26.330905000000001</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>5.5254167000000001</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>0.1</v>
       </c>
       <c r="K78">
@@ -17435,31 +17425,31 @@
       <c r="A79">
         <v>88</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>11.14</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>-74.39</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
         <v>6.2626249999999999</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>34.791364000000002</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79">
         <v>31.074316</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>5.6816667000000001</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
@@ -17644,31 +17634,31 @@
       <c r="A80">
         <v>89</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>11.15</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>-74.38</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
         <v>11.105458</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>35.258273000000003</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80">
         <v>28.639332</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>5.1841666999999996</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
@@ -17853,31 +17843,31 @@
       <c r="A81">
         <v>90</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>12.55</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>-71.87</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>76</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>6.3127917</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>34.770772999999998</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <v>30.991869000000001</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>5.5795833000000004</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
@@ -18062,31 +18052,31 @@
       <c r="A82">
         <v>91</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>12.68</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>-72.06</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82">
         <v>9.1029166999999998</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>34.980885999999998</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82">
         <v>29.346091999999999</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
         <v>5.0329167000000004</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82">
         <v>2.272727E-3</v>
       </c>
       <c r="K82">
